--- a/QRPH/CCG/StructureDefinition-ccg-di-ips-composition.xlsx
+++ b/QRPH/CCG/StructureDefinition-ccg-di-ips-composition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T16:28:52-05:00</t>
+    <t>2025-10-02T10:26:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3813,7 +3813,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>121</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>159</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>169</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>182</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>205</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>225</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>260</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>271</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>281</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>296</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>312</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>320</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>326</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>334</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>399</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>406</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>408</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>426</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>440</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>482</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>489</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>516</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>523</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
         <v>535</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>540</v>
       </c>
@@ -15313,7 +15313,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
         <v>547</v>
       </c>
@@ -16255,7 +16255,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>559</v>
       </c>
@@ -16610,7 +16610,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
         <v>564</v>
       </c>
@@ -17078,7 +17078,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120" hidden="true">
+    <row r="120">
       <c r="A120" t="s" s="2">
         <v>571</v>
       </c>
@@ -18020,7 +18020,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" hidden="true">
+    <row r="128">
       <c r="A128" t="s" s="2">
         <v>583</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" hidden="true">
+    <row r="131">
       <c r="A131" t="s" s="2">
         <v>588</v>
       </c>
@@ -18843,7 +18843,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="135" hidden="true">
+    <row r="135">
       <c r="A135" t="s" s="2">
         <v>595</v>
       </c>
@@ -19785,7 +19785,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="143" hidden="true">
+    <row r="143">
       <c r="A143" t="s" s="2">
         <v>607</v>
       </c>
@@ -20140,7 +20140,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="146" hidden="true">
+    <row r="146">
       <c r="A146" t="s" s="2">
         <v>612</v>
       </c>
@@ -20608,7 +20608,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" hidden="true">
+    <row r="150">
       <c r="A150" t="s" s="2">
         <v>619</v>
       </c>
@@ -21550,7 +21550,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="158" hidden="true">
+    <row r="158">
       <c r="A158" t="s" s="2">
         <v>631</v>
       </c>
@@ -21905,7 +21905,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="161" hidden="true">
+    <row r="161">
       <c r="A161" t="s" s="2">
         <v>636</v>
       </c>
@@ -22373,7 +22373,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="165" hidden="true">
+    <row r="165">
       <c r="A165" t="s" s="2">
         <v>643</v>
       </c>
@@ -23315,7 +23315,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="173" hidden="true">
+    <row r="173">
       <c r="A173" t="s" s="2">
         <v>656</v>
       </c>
@@ -23434,7 +23434,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="174" hidden="true">
+    <row r="174">
       <c r="A174" t="s" s="2">
         <v>659</v>
       </c>
@@ -23789,7 +23789,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" hidden="true">
+    <row r="177">
       <c r="A177" t="s" s="2">
         <v>664</v>
       </c>
@@ -25556,7 +25556,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="192" hidden="true">
+    <row r="192">
       <c r="A192" t="s" s="2">
         <v>689</v>
       </c>
@@ -27321,7 +27321,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="207" hidden="true">
+    <row r="207">
       <c r="A207" t="s" s="2">
         <v>711</v>
       </c>
@@ -36505,12 +36505,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO284">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
